--- a/Documentación/Ciclo2/TSP_PlaneaciónGrupalDeTareas.xlsx
+++ b/Documentación/Ciclo2/TSP_PlaneaciónGrupalDeTareas.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Documents\Software\Proyecto\Planeación PrimerCiclo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lukas\Documentos\Ucaldas\Ingeniería De Software\II\Proyecto\Planeación\Ciclo 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5925" tabRatio="283"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8976" tabRatio="283"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas" sheetId="1" r:id="rId1"/>
     <sheet name="Semanas" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-240A]General"/>
@@ -356,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -698,17 +698,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -726,7 +715,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -929,19 +918,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -951,27 +949,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -991,9 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1020,7 +994,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1044,7 +1018,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Semanas!$F$8</c:f>
+              <c:f>Semanas!$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1055,7 +1029,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Semanas!$F$9:$F$11</c:f>
+              <c:f>Semanas!$F$8:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1063,16 +1037,16 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4262135922330097</c:v>
+                  <c:v>0.43689320388349512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73592233009708741</c:v>
+                  <c:v>0.74368932038834956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7760-4CA2-8CB0-599C05DB347B}"/>
             </c:ext>
@@ -1083,7 +1057,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Semanas!$I$8</c:f>
+              <c:f>Semanas!$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1094,24 +1068,24 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Semanas!$I$9:$I$11</c:f>
+              <c:f>Semanas!$I$8:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.6601941747572817E-2</c:v>
+                  <c:v>0.16116504854368935</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6601941747572817E-2</c:v>
+                  <c:v>0.3757281553398058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6601941747572817E-2</c:v>
+                  <c:v>0.3757281553398058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7760-4CA2-8CB0-599C05DB347B}"/>
             </c:ext>
@@ -1127,11 +1101,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1562798112"/>
-        <c:axId val="-1472254704"/>
+        <c:axId val="-1358796384"/>
+        <c:axId val="-1358794208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1562798112"/>
+        <c:axId val="-1358796384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1472254704"/>
+        <c:crossAx val="-1358794208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1148,7 +1122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1472254704"/>
+        <c:axId val="-1358794208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1562798112"/>
+        <c:crossAx val="-1358796384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1184,23 +1158,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="2 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,6 +1271,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1332,6 +1323,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1510,48 +1518,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="12" customWidth="1"/>
-    <col min="4" max="7" width="12.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="12"/>
-    <col min="9" max="9" width="17.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="12" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="5.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="12" customWidth="1"/>
+    <col min="4" max="7" width="12.5546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="12"/>
+    <col min="9" max="9" width="17.44140625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="12" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="12"/>
     <col min="13" max="13" width="13" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="12"/>
+    <col min="14" max="16384" width="11.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+    <row r="2" spans="2:17" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1566,7 +1574,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
@@ -1583,7 +1591,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
@@ -1600,7 +1608,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1617,7 +1625,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
@@ -1634,7 +1642,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="7"/>
       <c r="D9" s="37"/>
@@ -1645,7 +1653,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>0</v>
       </c>
@@ -1653,10 +1661,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="74"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="9">
         <f>SUM(D5:D8)</f>
         <v>22</v>
@@ -1668,18 +1676,18 @@
       <c r="J10" s="11">
         <v>42814</v>
       </c>
-      <c r="L10" s="75" t="s">
+      <c r="L10" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="75"/>
+      <c r="M10" s="78"/>
       <c r="N10" s="11">
         <v>42835</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G13" s="12" t="s">
         <v>26</v>
       </c>
@@ -1699,10 +1707,10 @@
       </c>
       <c r="O13" s="13">
         <f>SUM(O19:O48)</f>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G14" s="12" t="s">
         <v>16</v>
       </c>
@@ -1716,36 +1724,36 @@
       </c>
       <c r="O14" s="13">
         <f>O13/60</f>
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="79" t="s">
+    <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D17" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="81" t="s">
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-    </row>
-    <row r="18" spans="2:17" s="38" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+    </row>
+    <row r="18" spans="2:17" s="38" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="44" t="s">
         <v>6</v>
       </c>
@@ -1795,8 +1803,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="76" t="s">
+    <row r="19" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="69" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="49" t="s">
@@ -1839,7 +1847,7 @@
         <f t="shared" ref="O19:O27" si="0">SUM(K19:N19)</f>
         <v>189</v>
       </c>
-      <c r="P19" s="69">
+      <c r="P19" s="51">
         <v>1</v>
       </c>
       <c r="Q19" s="54">
@@ -1847,8 +1855,8 @@
         <v>4.6601941747572817E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="77"/>
+    <row r="20" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="70"/>
       <c r="C20" s="42" t="s">
         <v>44</v>
       </c>
@@ -1879,14 +1887,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="70"/>
+      <c r="P20" s="14"/>
       <c r="Q20" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="77"/>
+    <row r="21" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="70"/>
       <c r="C21" s="42" t="s">
         <v>45</v>
       </c>
@@ -1917,21 +1925,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="70"/>
+      <c r="P21" s="14"/>
       <c r="Q21" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="78"/>
+    <row r="22" spans="2:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="71"/>
       <c r="C22" s="56" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="56">
         <v>30</v>
       </c>
-      <c r="E22" s="89"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="56"/>
       <c r="G22" s="56">
         <v>30</v>
@@ -1947,21 +1955,27 @@
         <f t="shared" si="3"/>
         <v>1.1650485436893204E-2</v>
       </c>
-      <c r="K22" s="56"/>
+      <c r="K22" s="56">
+        <v>65</v>
+      </c>
       <c r="L22" s="60"/>
       <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
+      <c r="N22" s="60">
+        <v>85</v>
+      </c>
       <c r="O22" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="71"/>
+        <v>150</v>
+      </c>
+      <c r="P22" s="58">
+        <v>1</v>
+      </c>
       <c r="Q22" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.1650485436893204E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="65" t="s">
         <v>70</v>
       </c>
@@ -1991,19 +2005,32 @@
         <f t="shared" si="3"/>
         <v>5.2427184466019419E-2</v>
       </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
+      <c r="K23" s="43">
+        <v>0</v>
+      </c>
+      <c r="L23" s="67">
+        <v>70</v>
+      </c>
+      <c r="M23" s="67">
+        <v>140</v>
+      </c>
+      <c r="N23" s="67">
+        <v>0</v>
+      </c>
       <c r="O23" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="68"/>
-    </row>
-    <row r="24" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="P23" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="62">
+        <f t="shared" si="1"/>
+        <v>5.2427184466019419E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="69" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="49" t="s">
@@ -2032,22 +2059,32 @@
         <f t="shared" si="3"/>
         <v>4.6601941747572817E-2</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
+      <c r="K24" s="49">
+        <v>31</v>
+      </c>
+      <c r="L24" s="63">
+        <v>31</v>
+      </c>
+      <c r="M24" s="63">
+        <v>31</v>
+      </c>
+      <c r="N24" s="63">
+        <v>31</v>
+      </c>
       <c r="O24" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="69"/>
+        <v>124</v>
+      </c>
+      <c r="P24" s="51">
+        <v>1</v>
+      </c>
       <c r="Q24" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="77"/>
+        <v>4.6601941747572817E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="70"/>
       <c r="C25" s="42" t="s">
         <v>63</v>
       </c>
@@ -2074,22 +2111,32 @@
         <f t="shared" si="3"/>
         <v>4.6601941747572817E-2</v>
       </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
+      <c r="K25" s="42">
+        <v>15</v>
+      </c>
+      <c r="L25" s="40">
+        <v>15</v>
+      </c>
+      <c r="M25" s="40">
+        <v>15</v>
+      </c>
+      <c r="N25" s="40">
+        <v>15</v>
+      </c>
       <c r="O25" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="70"/>
+        <v>60</v>
+      </c>
+      <c r="P25" s="14">
+        <v>2</v>
+      </c>
       <c r="Q25" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="77"/>
+        <v>4.6601941747572817E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="70"/>
       <c r="C26" s="42" t="s">
         <v>64</v>
       </c>
@@ -2124,14 +2171,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="70"/>
+      <c r="P26" s="14"/>
       <c r="Q26" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="78"/>
+    <row r="27" spans="2:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="71"/>
       <c r="C27" s="56" t="s">
         <v>65</v>
       </c>
@@ -2166,14 +2213,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="71"/>
+      <c r="P27" s="58"/>
       <c r="Q27" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="76" t="s">
+    <row r="28" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="69" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="49" t="s">
@@ -2196,22 +2243,26 @@
         <f>H28/$H$13</f>
         <v>5.8252427184466021E-3</v>
       </c>
-      <c r="K28" s="49"/>
+      <c r="K28" s="49">
+        <v>27</v>
+      </c>
       <c r="L28" s="49"/>
       <c r="M28" s="49"/>
       <c r="N28" s="49"/>
       <c r="O28" s="53">
         <f t="shared" ref="O28:O36" si="4">SUM(K28:N28)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="69"/>
+        <v>27</v>
+      </c>
+      <c r="P28" s="51">
+        <v>2</v>
+      </c>
       <c r="Q28" s="54">
         <f t="shared" ref="Q28:Q36" si="5">IF(P28&gt;0,J28,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="70"/>
       <c r="C29" s="42" t="s">
         <v>48</v>
       </c>
@@ -2232,22 +2283,26 @@
         <f>H29/$H$13</f>
         <v>5.8252427184466021E-3</v>
       </c>
-      <c r="K29" s="42"/>
+      <c r="K29" s="42">
+        <v>35</v>
+      </c>
       <c r="L29" s="42"/>
       <c r="M29" s="42"/>
       <c r="N29" s="42"/>
       <c r="O29" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="70"/>
+        <v>35</v>
+      </c>
+      <c r="P29" s="14">
+        <v>2</v>
+      </c>
       <c r="Q29" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="70"/>
       <c r="C30" s="42" t="s">
         <v>49</v>
       </c>
@@ -2268,22 +2323,26 @@
         <f>H30/$H$13</f>
         <v>4.8543689320388345E-3</v>
       </c>
-      <c r="K30" s="42"/>
+      <c r="K30" s="42">
+        <v>25</v>
+      </c>
       <c r="L30" s="40"/>
       <c r="M30" s="40"/>
       <c r="N30" s="40"/>
       <c r="O30" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="P30" s="14">
+        <v>2</v>
+      </c>
       <c r="Q30" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="77"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="70"/>
       <c r="C31" s="42" t="s">
         <v>40</v>
       </c>
@@ -2304,22 +2363,26 @@
         <f t="shared" ref="J31:J36" si="7">H31/$H$13</f>
         <v>1.9417475728155339E-3</v>
       </c>
-      <c r="K31" s="42"/>
+      <c r="K31" s="42">
+        <v>5</v>
+      </c>
       <c r="L31" s="40"/>
       <c r="M31" s="40"/>
       <c r="N31" s="40"/>
       <c r="O31" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="70"/>
+        <v>5</v>
+      </c>
+      <c r="P31" s="14">
+        <v>2</v>
+      </c>
       <c r="Q31" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="77"/>
+        <v>1.9417475728155339E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="70"/>
       <c r="C32" s="42" t="s">
         <v>66</v>
       </c>
@@ -2340,22 +2403,26 @@
         <f t="shared" si="7"/>
         <v>7.7669902912621356E-3</v>
       </c>
-      <c r="K32" s="42"/>
+      <c r="K32" s="42">
+        <v>60</v>
+      </c>
       <c r="L32" s="40"/>
       <c r="M32" s="40"/>
       <c r="N32" s="40"/>
       <c r="O32" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="70"/>
+        <v>60</v>
+      </c>
+      <c r="P32" s="14">
+        <v>2</v>
+      </c>
       <c r="Q32" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="77"/>
+        <v>7.7669902912621356E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="70"/>
       <c r="C33" s="42" t="s">
         <v>51</v>
       </c>
@@ -2384,14 +2451,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P33" s="70"/>
+      <c r="P33" s="14"/>
       <c r="Q33" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="77"/>
+    <row r="34" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="70"/>
       <c r="C34" s="7" t="s">
         <v>67</v>
       </c>
@@ -2420,14 +2487,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P34" s="70"/>
+      <c r="P34" s="7"/>
       <c r="Q34" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="77"/>
+    <row r="35" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="70"/>
       <c r="C35" s="42" t="s">
         <v>50</v>
       </c>
@@ -2456,14 +2523,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P35" s="70"/>
+      <c r="P35" s="14"/>
       <c r="Q35" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:17" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="78"/>
+    <row r="36" spans="2:17" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="71"/>
       <c r="C36" s="64" t="s">
         <v>41</v>
       </c>
@@ -2492,14 +2559,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P36" s="71"/>
+      <c r="P36" s="58"/>
       <c r="Q36" s="62">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="76" t="s">
+    <row r="37" spans="2:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="69" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="49" t="s">
@@ -2522,22 +2589,26 @@
         <f t="shared" ref="J37:J45" si="9">H37/$H$13</f>
         <v>5.8252427184466021E-3</v>
       </c>
-      <c r="K37" s="49"/>
+      <c r="K37" s="49">
+        <v>30</v>
+      </c>
       <c r="L37" s="49"/>
       <c r="M37" s="49"/>
       <c r="N37" s="49"/>
       <c r="O37" s="53">
         <f t="shared" ref="O37:O45" si="10">SUM(K37:N37)</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="69"/>
+        <v>30</v>
+      </c>
+      <c r="P37" s="51">
+        <v>2</v>
+      </c>
       <c r="Q37" s="54">
         <f t="shared" ref="Q37:Q45" si="11">IF(P37&gt;0,J37,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="70"/>
       <c r="C38" s="42" t="s">
         <v>69</v>
       </c>
@@ -2562,22 +2633,26 @@
         <f t="shared" si="9"/>
         <v>1.7475728155339806E-2</v>
       </c>
-      <c r="K38" s="42"/>
+      <c r="K38" s="42">
+        <v>25</v>
+      </c>
       <c r="L38" s="42"/>
       <c r="M38" s="42"/>
       <c r="N38" s="42"/>
       <c r="O38" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="P38" s="14">
+        <v>2</v>
+      </c>
       <c r="Q38" s="55">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="77"/>
+        <v>1.7475728155339806E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="70"/>
       <c r="C39" s="42" t="s">
         <v>49</v>
       </c>
@@ -2598,22 +2673,26 @@
         <f t="shared" si="9"/>
         <v>4.8543689320388345E-3</v>
       </c>
-      <c r="K39" s="42"/>
+      <c r="K39" s="42">
+        <v>25</v>
+      </c>
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
       <c r="N39" s="40"/>
       <c r="O39" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="P39" s="14">
+        <v>2</v>
+      </c>
       <c r="Q39" s="55">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="77"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="70"/>
       <c r="C40" s="42" t="s">
         <v>40</v>
       </c>
@@ -2634,22 +2713,26 @@
         <f t="shared" si="9"/>
         <v>1.9417475728155339E-3</v>
       </c>
-      <c r="K40" s="42"/>
+      <c r="K40" s="42">
+        <v>7</v>
+      </c>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
       <c r="N40" s="40"/>
       <c r="O40" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="70"/>
+        <v>7</v>
+      </c>
+      <c r="P40" s="14">
+        <v>2</v>
+      </c>
       <c r="Q40" s="55">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="77"/>
+        <v>1.9417475728155339E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="70"/>
       <c r="C41" s="42" t="s">
         <v>68</v>
       </c>
@@ -2670,22 +2753,26 @@
         <f t="shared" si="9"/>
         <v>5.8252427184466021E-3</v>
       </c>
-      <c r="K41" s="42"/>
+      <c r="K41" s="42">
+        <v>20</v>
+      </c>
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
       <c r="N41" s="40"/>
       <c r="O41" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="70"/>
+        <v>20</v>
+      </c>
+      <c r="P41" s="14">
+        <v>2</v>
+      </c>
       <c r="Q41" s="55">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="70"/>
       <c r="C42" s="42" t="s">
         <v>51</v>
       </c>
@@ -2714,14 +2801,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P42" s="70"/>
+      <c r="P42" s="14"/>
       <c r="Q42" s="55">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="77"/>
+    <row r="43" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="70"/>
       <c r="C43" s="7" t="s">
         <v>67</v>
       </c>
@@ -2750,14 +2837,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P43" s="70"/>
+      <c r="P43" s="14"/>
       <c r="Q43" s="55">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="77"/>
+    <row r="44" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="70"/>
       <c r="C44" s="42" t="s">
         <v>50</v>
       </c>
@@ -2786,14 +2873,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P44" s="70"/>
+      <c r="P44" s="14"/>
       <c r="Q44" s="55">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="78"/>
+    <row r="45" spans="2:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="71"/>
       <c r="C45" s="64" t="s">
         <v>41</v>
       </c>
@@ -2822,14 +2909,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P45" s="71"/>
+      <c r="P45" s="58"/>
       <c r="Q45" s="62">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="76" t="s">
+    <row r="46" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="69" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="49" t="s">
@@ -2853,21 +2940,25 @@
         <v>5.8252427184466021E-3</v>
       </c>
       <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
+      <c r="L46" s="49">
+        <v>40</v>
+      </c>
       <c r="M46" s="49"/>
       <c r="N46" s="49"/>
       <c r="O46" s="53">
         <f t="shared" ref="O46:O63" si="14">SUM(K46:N46)</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="69"/>
+        <v>40</v>
+      </c>
+      <c r="P46" s="51">
+        <v>2</v>
+      </c>
       <c r="Q46" s="54">
         <f t="shared" ref="Q46:Q63" si="15">IF(P46&gt;0,J46,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="70"/>
       <c r="C47" s="42" t="s">
         <v>48</v>
       </c>
@@ -2889,21 +2980,25 @@
         <v>5.8252427184466021E-3</v>
       </c>
       <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
+      <c r="L47" s="42">
+        <v>13</v>
+      </c>
       <c r="M47" s="42"/>
       <c r="N47" s="42"/>
       <c r="O47" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="70"/>
+        <v>13</v>
+      </c>
+      <c r="P47" s="14">
+        <v>2</v>
+      </c>
       <c r="Q47" s="55">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="70"/>
       <c r="C48" s="42" t="s">
         <v>49</v>
       </c>
@@ -2925,21 +3020,25 @@
         <v>4.8543689320388345E-3</v>
       </c>
       <c r="K48" s="42"/>
-      <c r="L48" s="40"/>
+      <c r="L48" s="40">
+        <v>32</v>
+      </c>
       <c r="M48" s="40"/>
       <c r="N48" s="40"/>
       <c r="O48" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="70"/>
+        <v>32</v>
+      </c>
+      <c r="P48" s="14">
+        <v>2</v>
+      </c>
       <c r="Q48" s="55">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="77"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="70"/>
       <c r="C49" s="42" t="s">
         <v>40</v>
       </c>
@@ -2968,14 +3067,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P49" s="70"/>
+      <c r="P49" s="14"/>
       <c r="Q49" s="55">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="77"/>
+    <row r="50" spans="2:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="70"/>
       <c r="C50" s="42" t="s">
         <v>66</v>
       </c>
@@ -2997,21 +3096,25 @@
         <v>7.7669902912621356E-3</v>
       </c>
       <c r="K50" s="42"/>
-      <c r="L50" s="40"/>
+      <c r="L50" s="40">
+        <v>60</v>
+      </c>
       <c r="M50" s="40"/>
       <c r="N50" s="40"/>
       <c r="O50" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="70"/>
+        <v>60</v>
+      </c>
+      <c r="P50" s="14">
+        <v>2</v>
+      </c>
       <c r="Q50" s="55">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="77"/>
+        <v>7.7669902912621356E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="70"/>
       <c r="C51" s="42" t="s">
         <v>51</v>
       </c>
@@ -3033,21 +3136,25 @@
         <v>5.8252427184466021E-3</v>
       </c>
       <c r="K51" s="42"/>
-      <c r="L51" s="40"/>
+      <c r="L51" s="40">
+        <v>50</v>
+      </c>
       <c r="M51" s="40"/>
       <c r="N51" s="40"/>
       <c r="O51" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="70"/>
+        <v>50</v>
+      </c>
+      <c r="P51" s="14">
+        <v>2</v>
+      </c>
       <c r="Q51" s="55">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="70"/>
       <c r="C52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3076,14 +3183,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P52" s="70"/>
+      <c r="P52" s="14"/>
       <c r="Q52" s="55">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="77"/>
+    <row r="53" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="70"/>
       <c r="C53" s="42" t="s">
         <v>50</v>
       </c>
@@ -3112,14 +3219,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P53" s="70"/>
+      <c r="P53" s="14"/>
       <c r="Q53" s="55">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="78"/>
+    <row r="54" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="71"/>
       <c r="C54" s="64" t="s">
         <v>41</v>
       </c>
@@ -3148,14 +3255,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P54" s="71"/>
+      <c r="P54" s="58"/>
       <c r="Q54" s="62">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="76" t="s">
+    <row r="55" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="69" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="49" t="s">
@@ -3179,21 +3286,25 @@
         <v>5.8252427184466021E-3</v>
       </c>
       <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
+      <c r="L55" s="49">
+        <v>41</v>
+      </c>
       <c r="M55" s="49"/>
       <c r="N55" s="49"/>
       <c r="O55" s="53">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="69"/>
+        <v>41</v>
+      </c>
+      <c r="P55" s="48">
+        <v>2</v>
+      </c>
       <c r="Q55" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="70"/>
       <c r="C56" s="42" t="s">
         <v>48</v>
       </c>
@@ -3215,21 +3326,25 @@
         <v>5.8252427184466021E-3</v>
       </c>
       <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
+      <c r="L56" s="42">
+        <v>13</v>
+      </c>
       <c r="M56" s="42"/>
       <c r="N56" s="42"/>
       <c r="O56" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="70"/>
+        <v>13</v>
+      </c>
+      <c r="P56" s="14">
+        <v>2</v>
+      </c>
       <c r="Q56" s="55">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="70"/>
       <c r="C57" s="42" t="s">
         <v>49</v>
       </c>
@@ -3258,14 +3373,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P57" s="70"/>
+      <c r="P57" s="14"/>
       <c r="Q57" s="55">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="77"/>
+    <row r="58" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="70"/>
       <c r="C58" s="42" t="s">
         <v>40</v>
       </c>
@@ -3294,14 +3409,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P58" s="70"/>
+      <c r="P58" s="14"/>
       <c r="Q58" s="55">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="77"/>
+    <row r="59" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="70"/>
       <c r="C59" s="42" t="s">
         <v>66</v>
       </c>
@@ -3330,14 +3445,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P59" s="70"/>
+      <c r="P59" s="14"/>
       <c r="Q59" s="55">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="77"/>
+    <row r="60" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="70"/>
       <c r="C60" s="42" t="s">
         <v>51</v>
       </c>
@@ -3366,14 +3481,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P60" s="70"/>
+      <c r="P60" s="14"/>
       <c r="Q60" s="55">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="77"/>
+    <row r="61" spans="2:17" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="70"/>
       <c r="C61" s="7" t="s">
         <v>67</v>
       </c>
@@ -3402,14 +3517,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P61" s="70"/>
+      <c r="P61" s="14"/>
       <c r="Q61" s="55">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="77"/>
+    <row r="62" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="70"/>
       <c r="C62" s="42" t="s">
         <v>50</v>
       </c>
@@ -3438,14 +3553,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P62" s="70"/>
+      <c r="P62" s="14"/>
       <c r="Q62" s="55">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="78"/>
+    <row r="63" spans="2:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="71"/>
       <c r="C63" s="64" t="s">
         <v>41</v>
       </c>
@@ -3474,14 +3589,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P63" s="71"/>
+      <c r="P63" s="58"/>
       <c r="Q63" s="62">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="76" t="s">
+    <row r="64" spans="2:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="69" t="s">
         <v>58</v>
       </c>
       <c r="C64" s="49" t="s">
@@ -3506,20 +3621,24 @@
       </c>
       <c r="K64" s="49"/>
       <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
+      <c r="M64" s="49">
+        <v>18</v>
+      </c>
       <c r="N64" s="49"/>
       <c r="O64" s="53">
         <f t="shared" ref="O64:O98" si="18">SUM(K64:N64)</f>
-        <v>0</v>
-      </c>
-      <c r="P64" s="69"/>
+        <v>18</v>
+      </c>
+      <c r="P64" s="51">
+        <v>1</v>
+      </c>
       <c r="Q64" s="54">
         <f t="shared" ref="Q64:Q98" si="19">IF(P64&gt;0,J64,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="77"/>
+        <v>3.8834951456310678E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="70"/>
       <c r="C65" s="42" t="s">
         <v>69</v>
       </c>
@@ -3552,14 +3671,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P65" s="70"/>
+      <c r="P65" s="14"/>
       <c r="Q65" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="77"/>
+    <row r="66" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="70"/>
       <c r="C66" s="42" t="s">
         <v>49</v>
       </c>
@@ -3582,20 +3701,24 @@
       </c>
       <c r="K66" s="42"/>
       <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
+      <c r="M66" s="40">
+        <v>20</v>
+      </c>
       <c r="N66" s="40"/>
       <c r="O66" s="16">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="70"/>
+        <v>20</v>
+      </c>
+      <c r="P66" s="14">
+        <v>2</v>
+      </c>
       <c r="Q66" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="77"/>
+        <v>2.9126213592233011E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="70"/>
       <c r="C67" s="42" t="s">
         <v>40</v>
       </c>
@@ -3618,20 +3741,24 @@
       </c>
       <c r="K67" s="42"/>
       <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
+      <c r="M67" s="40">
+        <v>5</v>
+      </c>
       <c r="N67" s="40"/>
       <c r="O67" s="16">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="70"/>
+        <v>5</v>
+      </c>
+      <c r="P67" s="14">
+        <v>2</v>
+      </c>
       <c r="Q67" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="77"/>
+        <v>1.9417475728155339E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="70"/>
       <c r="C68" s="42" t="s">
         <v>68</v>
       </c>
@@ -3654,20 +3781,24 @@
       </c>
       <c r="K68" s="42"/>
       <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
+      <c r="M68" s="40">
+        <v>60</v>
+      </c>
       <c r="N68" s="40"/>
       <c r="O68" s="16">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="70"/>
+        <v>60</v>
+      </c>
+      <c r="P68" s="14">
+        <v>2</v>
+      </c>
       <c r="Q68" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="77"/>
+        <v>3.8834951456310678E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="70"/>
       <c r="C69" s="42" t="s">
         <v>51</v>
       </c>
@@ -3690,20 +3821,24 @@
       </c>
       <c r="K69" s="42"/>
       <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
+      <c r="M69" s="40">
+        <v>30</v>
+      </c>
       <c r="N69" s="40"/>
       <c r="O69" s="16">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="70"/>
+        <v>30</v>
+      </c>
+      <c r="P69" s="14">
+        <v>2</v>
+      </c>
       <c r="Q69" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="70"/>
       <c r="C70" s="7" t="s">
         <v>67</v>
       </c>
@@ -3732,14 +3867,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P70" s="70"/>
+      <c r="P70" s="14"/>
       <c r="Q70" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="77"/>
+    <row r="71" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="70"/>
       <c r="C71" s="42" t="s">
         <v>50</v>
       </c>
@@ -3768,14 +3903,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P71" s="70"/>
+      <c r="P71" s="14"/>
       <c r="Q71" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="78"/>
+    <row r="72" spans="2:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="71"/>
       <c r="C72" s="64" t="s">
         <v>41</v>
       </c>
@@ -3804,14 +3939,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P72" s="71"/>
+      <c r="P72" s="58"/>
       <c r="Q72" s="62">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="76" t="s">
+    <row r="73" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="69" t="s">
         <v>59</v>
       </c>
       <c r="C73" s="49" t="s">
@@ -3836,20 +3971,24 @@
       </c>
       <c r="K73" s="49"/>
       <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
+      <c r="M73" s="49">
+        <v>30</v>
+      </c>
       <c r="N73" s="49"/>
       <c r="O73" s="53">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P73" s="69"/>
+        <v>30</v>
+      </c>
+      <c r="P73" s="51">
+        <v>2</v>
+      </c>
       <c r="Q73" s="54">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="70"/>
       <c r="C74" s="42" t="s">
         <v>48</v>
       </c>
@@ -3872,20 +4011,24 @@
       </c>
       <c r="K74" s="42"/>
       <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
+      <c r="M74" s="42">
+        <v>10</v>
+      </c>
       <c r="N74" s="42"/>
       <c r="O74" s="16">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="70"/>
+        <v>10</v>
+      </c>
+      <c r="P74" s="14">
+        <v>2</v>
+      </c>
       <c r="Q74" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="70"/>
       <c r="C75" s="42" t="s">
         <v>49</v>
       </c>
@@ -3908,20 +4051,24 @@
       </c>
       <c r="K75" s="42"/>
       <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
+      <c r="M75" s="40">
+        <v>6</v>
+      </c>
       <c r="N75" s="40"/>
       <c r="O75" s="16">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P75" s="70"/>
+        <v>6</v>
+      </c>
+      <c r="P75" s="14">
+        <v>2</v>
+      </c>
       <c r="Q75" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="77"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="70"/>
       <c r="C76" s="42" t="s">
         <v>40</v>
       </c>
@@ -3944,20 +4091,24 @@
       </c>
       <c r="K76" s="42"/>
       <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
+      <c r="M76" s="40">
+        <v>5</v>
+      </c>
       <c r="N76" s="40"/>
       <c r="O76" s="16">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="70"/>
+        <v>5</v>
+      </c>
+      <c r="P76" s="14">
+        <v>2</v>
+      </c>
       <c r="Q76" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="77"/>
+        <v>1.9417475728155339E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="70"/>
       <c r="C77" s="42" t="s">
         <v>66</v>
       </c>
@@ -3980,20 +4131,24 @@
       </c>
       <c r="K77" s="42"/>
       <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
+      <c r="M77" s="40">
+        <v>15</v>
+      </c>
       <c r="N77" s="40"/>
       <c r="O77" s="16">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="70"/>
+        <v>15</v>
+      </c>
+      <c r="P77" s="14">
+        <v>2</v>
+      </c>
       <c r="Q77" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="77"/>
+        <v>3.8834951456310678E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="70"/>
       <c r="C78" s="42" t="s">
         <v>51</v>
       </c>
@@ -4022,14 +4177,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P78" s="70"/>
+      <c r="P78" s="14"/>
       <c r="Q78" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="77"/>
+    <row r="79" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="70"/>
       <c r="C79" s="7" t="s">
         <v>67</v>
       </c>
@@ -4058,14 +4213,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P79" s="70"/>
+      <c r="P79" s="14"/>
       <c r="Q79" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="77"/>
+    <row r="80" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="70"/>
       <c r="C80" s="42" t="s">
         <v>50</v>
       </c>
@@ -4094,14 +4249,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P80" s="70"/>
+      <c r="P80" s="14"/>
       <c r="Q80" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="78"/>
+    <row r="81" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="71"/>
       <c r="C81" s="64" t="s">
         <v>41</v>
       </c>
@@ -4130,14 +4285,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P81" s="71"/>
+      <c r="P81" s="58"/>
       <c r="Q81" s="62">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="76" t="s">
+    <row r="82" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="69" t="s">
         <v>53</v>
       </c>
       <c r="C82" s="49" t="s">
@@ -4163,19 +4318,23 @@
       <c r="K82" s="49"/>
       <c r="L82" s="49"/>
       <c r="M82" s="49"/>
-      <c r="N82" s="49"/>
+      <c r="N82" s="49">
+        <v>40</v>
+      </c>
       <c r="O82" s="53">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P82" s="69"/>
+        <v>40</v>
+      </c>
+      <c r="P82" s="51">
+        <v>2</v>
+      </c>
       <c r="Q82" s="54">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="70"/>
       <c r="C83" s="42" t="s">
         <v>48</v>
       </c>
@@ -4199,19 +4358,23 @@
       <c r="K83" s="42"/>
       <c r="L83" s="42"/>
       <c r="M83" s="42"/>
-      <c r="N83" s="42"/>
+      <c r="N83" s="42">
+        <v>20</v>
+      </c>
       <c r="O83" s="16">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P83" s="70"/>
+        <v>20</v>
+      </c>
+      <c r="P83" s="14">
+        <v>2</v>
+      </c>
       <c r="Q83" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="70"/>
       <c r="C84" s="42" t="s">
         <v>49</v>
       </c>
@@ -4235,19 +4398,23 @@
       <c r="K84" s="42"/>
       <c r="L84" s="40"/>
       <c r="M84" s="40"/>
-      <c r="N84" s="40"/>
+      <c r="N84" s="40">
+        <v>55</v>
+      </c>
       <c r="O84" s="16">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P84" s="70"/>
+        <v>55</v>
+      </c>
+      <c r="P84" s="14">
+        <v>2</v>
+      </c>
       <c r="Q84" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="77"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="70"/>
       <c r="C85" s="42" t="s">
         <v>40</v>
       </c>
@@ -4276,14 +4443,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P85" s="70"/>
+      <c r="P85" s="14"/>
       <c r="Q85" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="77"/>
+    <row r="86" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="70"/>
       <c r="C86" s="42" t="s">
         <v>66</v>
       </c>
@@ -4312,14 +4479,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P86" s="70"/>
+      <c r="P86" s="14"/>
       <c r="Q86" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="77"/>
+    <row r="87" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="70"/>
       <c r="C87" s="42" t="s">
         <v>51</v>
       </c>
@@ -4348,14 +4515,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P87" s="70"/>
+      <c r="P87" s="14"/>
       <c r="Q87" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="77"/>
+    <row r="88" spans="2:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="70"/>
       <c r="C88" s="7" t="s">
         <v>67</v>
       </c>
@@ -4384,14 +4551,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P88" s="70"/>
+      <c r="P88" s="14"/>
       <c r="Q88" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="77"/>
+    <row r="89" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="70"/>
       <c r="C89" s="42" t="s">
         <v>50</v>
       </c>
@@ -4420,14 +4587,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P89" s="70"/>
+      <c r="P89" s="14"/>
       <c r="Q89" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:17" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="78"/>
+    <row r="90" spans="2:17" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="71"/>
       <c r="C90" s="64" t="s">
         <v>41</v>
       </c>
@@ -4456,14 +4623,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P90" s="71"/>
+      <c r="P90" s="58"/>
       <c r="Q90" s="62">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="76" t="s">
+    <row r="91" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="69" t="s">
         <v>60</v>
       </c>
       <c r="C91" s="49" t="s">
@@ -4480,7 +4647,7 @@
         <v>30</v>
       </c>
       <c r="I91" s="51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" s="52">
         <f t="shared" si="17"/>
@@ -4489,19 +4656,23 @@
       <c r="K91" s="49"/>
       <c r="L91" s="49"/>
       <c r="M91" s="49"/>
-      <c r="N91" s="49"/>
+      <c r="N91" s="49">
+        <v>32</v>
+      </c>
       <c r="O91" s="53">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P91" s="69"/>
+        <v>32</v>
+      </c>
+      <c r="P91" s="51">
+        <v>2</v>
+      </c>
       <c r="Q91" s="54">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="77"/>
+        <v>5.8252427184466021E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="70"/>
       <c r="C92" s="42" t="s">
         <v>69</v>
       </c>
@@ -4534,14 +4705,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P92" s="70"/>
+      <c r="P92" s="14"/>
       <c r="Q92" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="77"/>
+    <row r="93" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="70"/>
       <c r="C93" s="41" t="s">
         <v>49</v>
       </c>
@@ -4556,7 +4727,7 @@
         <v>25</v>
       </c>
       <c r="I93" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" s="15">
         <f t="shared" si="17"/>
@@ -4565,19 +4736,23 @@
       <c r="K93" s="42"/>
       <c r="L93" s="40"/>
       <c r="M93" s="40"/>
-      <c r="N93" s="40"/>
+      <c r="N93" s="40">
+        <v>20</v>
+      </c>
       <c r="O93" s="16">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P93" s="70"/>
+        <v>20</v>
+      </c>
+      <c r="P93" s="14">
+        <v>2</v>
+      </c>
       <c r="Q93" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="77"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="70"/>
       <c r="C94" s="42" t="s">
         <v>40</v>
       </c>
@@ -4606,14 +4781,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P94" s="70"/>
+      <c r="P94" s="14"/>
       <c r="Q94" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="77"/>
+    <row r="95" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="70"/>
       <c r="C95" s="42" t="s">
         <v>51</v>
       </c>
@@ -4628,7 +4803,7 @@
         <v>40</v>
       </c>
       <c r="I95" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J95" s="15">
         <f t="shared" si="17"/>
@@ -4642,14 +4817,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P95" s="70"/>
+      <c r="P95" s="14"/>
       <c r="Q95" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="77"/>
+    <row r="96" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="70"/>
       <c r="C96" s="7" t="s">
         <v>52</v>
       </c>
@@ -4678,14 +4853,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P96" s="70"/>
+      <c r="P96" s="14"/>
       <c r="Q96" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="77"/>
+    <row r="97" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="70"/>
       <c r="C97" s="42" t="s">
         <v>50</v>
       </c>
@@ -4714,14 +4889,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P97" s="70"/>
+      <c r="P97" s="14"/>
       <c r="Q97" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="78"/>
+    <row r="98" spans="2:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="71"/>
       <c r="C98" s="56" t="s">
         <v>41</v>
       </c>
@@ -4750,7 +4925,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P98" s="71"/>
+      <c r="P98" s="58"/>
       <c r="Q98" s="62">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -4758,6 +4933,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="B73:B81"/>
     <mergeCell ref="B82:B90"/>
     <mergeCell ref="B91:B98"/>
@@ -4767,12 +4948,6 @@
     <mergeCell ref="B46:B54"/>
     <mergeCell ref="B55:B63"/>
     <mergeCell ref="B64:B72"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B24:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4781,37 +4956,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="22" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="22" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="22" customWidth="1"/>
     <col min="5" max="5" width="16" style="22" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="22" customWidth="1"/>
-    <col min="7" max="8" width="15.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="22"/>
+    <col min="6" max="6" width="14.88671875" style="22" customWidth="1"/>
+    <col min="7" max="8" width="15.44140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
@@ -4826,7 +5001,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
@@ -4839,103 +5014,138 @@
       <c r="E4" s="23"/>
       <c r="F4" s="27"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="84" t="s">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30">
+        <v>42814</v>
+      </c>
+      <c r="C8" s="30">
+        <v>42820</v>
+      </c>
+      <c r="D8" s="3">
+        <f>(SUMIFS(Tareas!$H$19:$H$98,Tareas!$I$19:$I$98,Semanas!A8))/60</f>
+        <v>17.166666666666668</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUMIFS(Tareas!$J$19:$J$98,Tareas!$I$19:$I$98,Semanas!A8)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="31">
+        <f>E8</f>
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
+        <f>(SUMIFS(Tareas!$O$19:$O$98,Tareas!$P$19:$P$98,Semanas!A8))/60</f>
+        <v>11.516666666666667</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUMIFS(Tareas!$Q$19:$Q$98,Tareas!$P$19:$P$98,Semanas!A8)</f>
+        <v>0.16116504854368935</v>
+      </c>
+      <c r="I8" s="4">
+        <f>H8</f>
+        <v>0.16116504854368935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="30">
-        <v>42814</v>
+        <v>42821</v>
       </c>
       <c r="C9" s="30">
-        <v>42820</v>
+        <v>42827</v>
       </c>
       <c r="D9" s="3">
         <f>(SUMIFS(Tareas!$H$19:$H$98,Tareas!$I$19:$I$98,Semanas!A9))/60</f>
-        <v>17.166666666666668</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="E9" s="4">
         <f>SUMIFS(Tareas!$J$19:$J$98,Tareas!$I$19:$I$98,Semanas!A9)</f>
-        <v>0.2</v>
+        <v>0.23689320388349511</v>
       </c>
       <c r="F9" s="31">
-        <f>E9</f>
-        <v>0.2</v>
+        <f>F8+E9</f>
+        <v>0.43689320388349512</v>
       </c>
       <c r="G9" s="3">
         <f>(SUMIFS(Tareas!$O$19:$O$98,Tareas!$P$19:$P$98,Semanas!A9))/60</f>
-        <v>3.15</v>
+        <v>15.266666666666667</v>
       </c>
       <c r="H9" s="4">
         <f>SUMIFS(Tareas!$Q$19:$Q$98,Tareas!$P$19:$P$98,Semanas!A9)</f>
-        <v>4.6601941747572817E-2</v>
+        <v>0.21456310679611645</v>
       </c>
       <c r="I9" s="4">
-        <f>H9</f>
-        <v>4.6601941747572817E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <f>I8+H9</f>
+        <v>0.3757281553398058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="30">
-        <v>42821</v>
+        <v>42828</v>
       </c>
       <c r="C10" s="30">
-        <v>42827</v>
+        <v>42834</v>
       </c>
       <c r="D10" s="3">
         <f>(SUMIFS(Tareas!$H$19:$H$98,Tareas!$I$19:$I$98,Semanas!A10))/60</f>
-        <v>19.416666666666668</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="E10" s="4">
         <f>SUMIFS(Tareas!$J$19:$J$98,Tareas!$I$19:$I$98,Semanas!A10)</f>
-        <v>0.22621359223300969</v>
+        <v>0.30679611650485444</v>
       </c>
       <c r="F10" s="31">
-        <f>F9+E10</f>
-        <v>0.4262135922330097</v>
+        <f t="shared" ref="F10:F11" si="0">F9+E10</f>
+        <v>0.74368932038834956</v>
       </c>
       <c r="G10" s="3">
         <f>(SUMIFS(Tareas!$O$19:$O$98,Tareas!$P$19:$P$98,Semanas!A10))/60</f>
@@ -4947,30 +5157,30 @@
       </c>
       <c r="I10" s="4">
         <f>I9+H10</f>
-        <v>4.6601941747572817E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>3</v>
+        <v>0.3757281553398058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>4</v>
       </c>
       <c r="B11" s="30">
-        <v>42828</v>
+        <v>42835</v>
       </c>
       <c r="C11" s="30">
-        <v>42834</v>
+        <v>42841</v>
       </c>
       <c r="D11" s="3">
         <f>(SUMIFS(Tareas!$H$19:$H$98,Tareas!$I$19:$I$98,Semanas!A11))/60</f>
-        <v>26.583333333333332</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4">
         <f>SUMIFS(Tareas!$J$19:$J$98,Tareas!$I$19:$I$98,Semanas!A11)</f>
-        <v>0.30970873786407771</v>
+        <v>0.25631067961165055</v>
       </c>
       <c r="F11" s="31">
-        <f t="shared" ref="F11:F12" si="0">F10+E11</f>
-        <v>0.73592233009708741</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
         <f>(SUMIFS(Tareas!$O$19:$O$98,Tareas!$P$19:$P$98,Semanas!A11))/60</f>
@@ -4982,87 +5192,52 @@
       </c>
       <c r="I11" s="4">
         <f>I10+H11</f>
-        <v>4.6601941747572817E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>4</v>
-      </c>
-      <c r="B12" s="30">
-        <v>42835</v>
-      </c>
-      <c r="C12" s="30">
-        <v>42841</v>
-      </c>
-      <c r="D12" s="3">
-        <f>(SUMIFS(Tareas!$H$19:$H$98,Tareas!$I$19:$I$98,Semanas!A12))/60</f>
-        <v>22.666666666666668</v>
-      </c>
-      <c r="E12" s="4">
-        <f>SUMIFS(Tareas!$J$19:$J$98,Tareas!$I$19:$I$98,Semanas!A12)</f>
-        <v>0.26407766990291265</v>
-      </c>
-      <c r="F12" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <f>(SUMIFS(Tareas!$O$19:$O$98,Tareas!$P$19:$P$98,Semanas!A12))/60</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f>SUMIFS(Tareas!$Q$19:$Q$98,Tareas!$P$19:$P$98,Semanas!A12)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f>I11+H12</f>
-        <v>4.6601941747572817E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="22" t="s">
+        <v>0.3757281553398058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="32">
-        <f>SUM(D9:D12)</f>
-        <v>85.833333333333343</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="32">
-        <f>SUM(G9:G12)</f>
-        <v>3.15</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32">
+        <f>SUM(D8:D11)</f>
+        <v>85.833333333333329</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="32">
+        <f>SUM(G8:G11)</f>
+        <v>26.783333333333335</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="29"/>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="29"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5078,22 +5253,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <f>_xlfn.IFS(A1=1,1,A1=2,2,A1=3,3)</f>
-        <v>3</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="e">
+        <f ca="1">_xlfn.IFS(A1=1,1,A1=2,2,A1=3,3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Ciclo2/TSP_PlaneaciónGrupalDeTareas.xlsx
+++ b/Documentación/Ciclo2/TSP_PlaneaciónGrupalDeTareas.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lukas\Documentos\Ucaldas\Ingeniería De Software\II\Proyecto\Planeación\Ciclo 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Documents\GitHub\ViveroFrutalia\Documentación\Ciclo 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8976" tabRatio="283"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8970" tabRatio="283"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas" sheetId="1" r:id="rId1"/>
     <sheet name="Semanas" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tareas!$B$18:$Q$98</definedName>
+  </definedNames>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -242,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-240A]General"/>
@@ -921,6 +924,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -940,15 +952,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -994,7 +997,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1040,13 +1043,13 @@
                   <c:v>0.43689320388349512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74368932038834956</c:v>
+                  <c:v>0.73592233009708741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7760-4CA2-8CB0-599C05DB347B}"/>
             </c:ext>
@@ -1076,16 +1079,16 @@
                   <c:v>0.16116504854368935</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3757281553398058</c:v>
+                  <c:v>0.39126213592233006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3757281553398058</c:v>
+                  <c:v>0.39126213592233006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7760-4CA2-8CB0-599C05DB347B}"/>
             </c:ext>
@@ -1140,6 +1143,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1174,7 +1178,7 @@
         <xdr:cNvPr id="3" name="2 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,23 +1275,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1323,23 +1310,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1518,48 +1488,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" style="12" customWidth="1"/>
-    <col min="4" max="7" width="12.5546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="12"/>
-    <col min="9" max="9" width="17.44140625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="12" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="12"/>
+    <col min="1" max="1" width="5.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="12" customWidth="1"/>
+    <col min="4" max="7" width="12.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="12"/>
+    <col min="9" max="9" width="17.42578125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="12" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="12"/>
     <col min="13" max="13" width="13" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="12"/>
+    <col min="14" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
+    <row r="2" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1574,7 +1544,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
@@ -1591,7 +1561,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
@@ -1608,7 +1578,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1625,7 +1595,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
@@ -1642,7 +1612,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="7"/>
       <c r="D9" s="37"/>
@@ -1653,7 +1623,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>0</v>
       </c>
@@ -1661,10 +1631,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="77"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="9">
         <f>SUM(D5:D8)</f>
         <v>22</v>
@@ -1676,18 +1646,18 @@
       <c r="J10" s="11">
         <v>42814</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="78"/>
+      <c r="M10" s="71"/>
       <c r="N10" s="11">
         <v>42835</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G13" s="12" t="s">
         <v>26</v>
       </c>
@@ -1707,10 +1677,10 @@
       </c>
       <c r="O13" s="13">
         <f>SUM(O19:O48)</f>
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G14" s="12" t="s">
         <v>16</v>
       </c>
@@ -1724,36 +1694,36 @@
       </c>
       <c r="O14" s="13">
         <f>O13/60</f>
-        <v>17.95</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+        <v>18.116666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D17" s="72" t="s">
+    <row r="17" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74" t="s">
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-    </row>
-    <row r="18" spans="2:17" s="38" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+    </row>
+    <row r="18" spans="2:17" s="38" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="44" t="s">
         <v>6</v>
       </c>
@@ -1803,8 +1773,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="69" t="s">
+    <row r="19" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="72" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="49" t="s">
@@ -1855,8 +1825,8 @@
         <v>4.6601941747572817E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="70"/>
+    <row r="20" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="73"/>
       <c r="C20" s="42" t="s">
         <v>44</v>
       </c>
@@ -1880,21 +1850,27 @@
         <v>1.5533980582524271E-2</v>
       </c>
       <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="L20" s="42">
+        <v>5</v>
+      </c>
+      <c r="M20" s="42">
+        <v>5</v>
+      </c>
       <c r="N20" s="42"/>
       <c r="O20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="P20" s="14">
+        <v>2</v>
+      </c>
       <c r="Q20" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="70"/>
+        <v>1.5533980582524271E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="73"/>
       <c r="C21" s="42" t="s">
         <v>45</v>
       </c>
@@ -1931,8 +1907,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="71"/>
+    <row r="22" spans="2:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="74"/>
       <c r="C22" s="56" t="s">
         <v>46</v>
       </c>
@@ -1975,7 +1951,7 @@
         <v>1.1650485436893204E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="65" t="s">
         <v>70</v>
       </c>
@@ -2029,8 +2005,8 @@
         <v>5.2427184466019419E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="69" t="s">
+    <row r="24" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="72" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="49" t="s">
@@ -2083,8 +2059,8 @@
         <v>4.6601941747572817E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="70"/>
+    <row r="25" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="73"/>
       <c r="C25" s="42" t="s">
         <v>63</v>
       </c>
@@ -2135,8 +2111,8 @@
         <v>4.6601941747572817E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="70"/>
+    <row r="26" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="73"/>
       <c r="C26" s="42" t="s">
         <v>64</v>
       </c>
@@ -2177,8 +2153,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="71"/>
+    <row r="27" spans="2:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="74"/>
       <c r="C27" s="56" t="s">
         <v>65</v>
       </c>
@@ -2219,8 +2195,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69" t="s">
+    <row r="28" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="72" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="49" t="s">
@@ -2261,8 +2237,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="70"/>
+    <row r="29" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="73"/>
       <c r="C29" s="42" t="s">
         <v>48</v>
       </c>
@@ -2301,8 +2277,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="70"/>
+    <row r="30" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="73"/>
       <c r="C30" s="42" t="s">
         <v>49</v>
       </c>
@@ -2341,8 +2317,8 @@
         <v>4.8543689320388345E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="70"/>
+    <row r="31" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="73"/>
       <c r="C31" s="42" t="s">
         <v>40</v>
       </c>
@@ -2381,8 +2357,8 @@
         <v>1.9417475728155339E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="70"/>
+    <row r="32" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="73"/>
       <c r="C32" s="42" t="s">
         <v>66</v>
       </c>
@@ -2421,8 +2397,8 @@
         <v>7.7669902912621356E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="70"/>
+    <row r="33" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="73"/>
       <c r="C33" s="42" t="s">
         <v>51</v>
       </c>
@@ -2457,8 +2433,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="70"/>
+    <row r="34" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="73"/>
       <c r="C34" s="7" t="s">
         <v>67</v>
       </c>
@@ -2493,8 +2469,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="70"/>
+    <row r="35" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="73"/>
       <c r="C35" s="42" t="s">
         <v>50</v>
       </c>
@@ -2529,8 +2505,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:17" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="71"/>
+    <row r="36" spans="2:17" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="74"/>
       <c r="C36" s="64" t="s">
         <v>41</v>
       </c>
@@ -2565,8 +2541,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="69" t="s">
+    <row r="37" spans="2:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="72" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="49" t="s">
@@ -2607,8 +2583,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="70"/>
+    <row r="38" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="73"/>
       <c r="C38" s="42" t="s">
         <v>69</v>
       </c>
@@ -2651,8 +2627,8 @@
         <v>1.7475728155339806E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="70"/>
+    <row r="39" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="73"/>
       <c r="C39" s="42" t="s">
         <v>49</v>
       </c>
@@ -2691,8 +2667,8 @@
         <v>4.8543689320388345E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="70"/>
+    <row r="40" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="73"/>
       <c r="C40" s="42" t="s">
         <v>40</v>
       </c>
@@ -2731,8 +2707,8 @@
         <v>1.9417475728155339E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="70"/>
+    <row r="41" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="73"/>
       <c r="C41" s="42" t="s">
         <v>68</v>
       </c>
@@ -2771,8 +2747,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="70"/>
+    <row r="42" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="73"/>
       <c r="C42" s="42" t="s">
         <v>51</v>
       </c>
@@ -2807,8 +2783,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="70"/>
+    <row r="43" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="73"/>
       <c r="C43" s="7" t="s">
         <v>67</v>
       </c>
@@ -2843,8 +2819,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="70"/>
+    <row r="44" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="73"/>
       <c r="C44" s="42" t="s">
         <v>50</v>
       </c>
@@ -2879,8 +2855,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="71"/>
+    <row r="45" spans="2:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="74"/>
       <c r="C45" s="64" t="s">
         <v>41</v>
       </c>
@@ -2915,8 +2891,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="69" t="s">
+    <row r="46" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="72" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="49" t="s">
@@ -2957,8 +2933,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="70"/>
+    <row r="47" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="73"/>
       <c r="C47" s="42" t="s">
         <v>48</v>
       </c>
@@ -2997,8 +2973,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="70"/>
+    <row r="48" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="73"/>
       <c r="C48" s="42" t="s">
         <v>49</v>
       </c>
@@ -3037,8 +3013,8 @@
         <v>4.8543689320388345E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="70"/>
+    <row r="49" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="73"/>
       <c r="C49" s="42" t="s">
         <v>40</v>
       </c>
@@ -3073,8 +3049,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="70"/>
+    <row r="50" spans="2:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="73"/>
       <c r="C50" s="42" t="s">
         <v>66</v>
       </c>
@@ -3113,8 +3089,8 @@
         <v>7.7669902912621356E-3</v>
       </c>
     </row>
-    <row r="51" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="70"/>
+    <row r="51" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="73"/>
       <c r="C51" s="42" t="s">
         <v>51</v>
       </c>
@@ -3153,8 +3129,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="70"/>
+    <row r="52" spans="2:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="73"/>
       <c r="C52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3189,8 +3165,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="70"/>
+    <row r="53" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="73"/>
       <c r="C53" s="42" t="s">
         <v>50</v>
       </c>
@@ -3225,8 +3201,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="71"/>
+    <row r="54" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="74"/>
       <c r="C54" s="64" t="s">
         <v>41</v>
       </c>
@@ -3261,8 +3237,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="69" t="s">
+    <row r="55" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="72" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="49" t="s">
@@ -3303,8 +3279,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="56" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="70"/>
+    <row r="56" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="73"/>
       <c r="C56" s="42" t="s">
         <v>48</v>
       </c>
@@ -3343,8 +3319,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="70"/>
+    <row r="57" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="73"/>
       <c r="C57" s="42" t="s">
         <v>49</v>
       </c>
@@ -3379,8 +3355,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="70"/>
+    <row r="58" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="73"/>
       <c r="C58" s="42" t="s">
         <v>40</v>
       </c>
@@ -3415,8 +3391,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="70"/>
+    <row r="59" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="73"/>
       <c r="C59" s="42" t="s">
         <v>66</v>
       </c>
@@ -3451,8 +3427,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="70"/>
+    <row r="60" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="73"/>
       <c r="C60" s="42" t="s">
         <v>51</v>
       </c>
@@ -3487,8 +3463,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:17" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
+    <row r="61" spans="2:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="73"/>
       <c r="C61" s="7" t="s">
         <v>67</v>
       </c>
@@ -3523,8 +3499,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+    <row r="62" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="73"/>
       <c r="C62" s="42" t="s">
         <v>50</v>
       </c>
@@ -3559,8 +3535,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="71"/>
+    <row r="63" spans="2:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="74"/>
       <c r="C63" s="64" t="s">
         <v>41</v>
       </c>
@@ -3595,8 +3571,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="69" t="s">
+    <row r="64" spans="2:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="72" t="s">
         <v>58</v>
       </c>
       <c r="C64" s="49" t="s">
@@ -3637,8 +3613,8 @@
         <v>3.8834951456310678E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="70"/>
+    <row r="65" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="73"/>
       <c r="C65" s="42" t="s">
         <v>69</v>
       </c>
@@ -3677,8 +3653,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="70"/>
+    <row r="66" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="73"/>
       <c r="C66" s="42" t="s">
         <v>49</v>
       </c>
@@ -3717,8 +3693,8 @@
         <v>2.9126213592233011E-3</v>
       </c>
     </row>
-    <row r="67" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="70"/>
+    <row r="67" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="73"/>
       <c r="C67" s="42" t="s">
         <v>40</v>
       </c>
@@ -3757,8 +3733,8 @@
         <v>1.9417475728155339E-3</v>
       </c>
     </row>
-    <row r="68" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="70"/>
+    <row r="68" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="73"/>
       <c r="C68" s="42" t="s">
         <v>68</v>
       </c>
@@ -3797,8 +3773,8 @@
         <v>3.8834951456310678E-3</v>
       </c>
     </row>
-    <row r="69" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="70"/>
+    <row r="69" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="73"/>
       <c r="C69" s="42" t="s">
         <v>51</v>
       </c>
@@ -3837,8 +3813,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="70" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="70"/>
+    <row r="70" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="73"/>
       <c r="C70" s="7" t="s">
         <v>67</v>
       </c>
@@ -3873,8 +3849,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="70"/>
+    <row r="71" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="73"/>
       <c r="C71" s="42" t="s">
         <v>50</v>
       </c>
@@ -3909,8 +3885,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="71"/>
+    <row r="72" spans="2:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="74"/>
       <c r="C72" s="64" t="s">
         <v>41</v>
       </c>
@@ -3945,8 +3921,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="69" t="s">
+    <row r="73" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="72" t="s">
         <v>59</v>
       </c>
       <c r="C73" s="49" t="s">
@@ -3987,8 +3963,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="74" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="70"/>
+    <row r="74" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="73"/>
       <c r="C74" s="42" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4003,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="70"/>
+    <row r="75" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="73"/>
       <c r="C75" s="42" t="s">
         <v>49</v>
       </c>
@@ -4067,8 +4043,8 @@
         <v>4.8543689320388345E-3</v>
       </c>
     </row>
-    <row r="76" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="70"/>
+    <row r="76" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="73"/>
       <c r="C76" s="42" t="s">
         <v>40</v>
       </c>
@@ -4107,8 +4083,8 @@
         <v>1.9417475728155339E-3</v>
       </c>
     </row>
-    <row r="77" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="70"/>
+    <row r="77" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="73"/>
       <c r="C77" s="42" t="s">
         <v>66</v>
       </c>
@@ -4147,8 +4123,8 @@
         <v>3.8834951456310678E-3</v>
       </c>
     </row>
-    <row r="78" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="70"/>
+    <row r="78" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="73"/>
       <c r="C78" s="42" t="s">
         <v>51</v>
       </c>
@@ -4183,8 +4159,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="70"/>
+    <row r="79" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="73"/>
       <c r="C79" s="7" t="s">
         <v>67</v>
       </c>
@@ -4219,8 +4195,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="70"/>
+    <row r="80" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="73"/>
       <c r="C80" s="42" t="s">
         <v>50</v>
       </c>
@@ -4255,8 +4231,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="71"/>
+    <row r="81" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="74"/>
       <c r="C81" s="64" t="s">
         <v>41</v>
       </c>
@@ -4291,8 +4267,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="69" t="s">
+    <row r="82" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="72" t="s">
         <v>53</v>
       </c>
       <c r="C82" s="49" t="s">
@@ -4333,8 +4309,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="83" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="70"/>
+    <row r="83" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="73"/>
       <c r="C83" s="42" t="s">
         <v>48</v>
       </c>
@@ -4373,8 +4349,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="84" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="70"/>
+    <row r="84" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="73"/>
       <c r="C84" s="42" t="s">
         <v>49</v>
       </c>
@@ -4413,8 +4389,8 @@
         <v>4.8543689320388345E-3</v>
       </c>
     </row>
-    <row r="85" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="70"/>
+    <row r="85" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="73"/>
       <c r="C85" s="42" t="s">
         <v>40</v>
       </c>
@@ -4449,8 +4425,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="70"/>
+    <row r="86" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="73"/>
       <c r="C86" s="42" t="s">
         <v>66</v>
       </c>
@@ -4485,8 +4461,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="70"/>
+    <row r="87" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="73"/>
       <c r="C87" s="42" t="s">
         <v>51</v>
       </c>
@@ -4521,8 +4497,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="70"/>
+    <row r="88" spans="2:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="73"/>
       <c r="C88" s="7" t="s">
         <v>67</v>
       </c>
@@ -4557,8 +4533,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="70"/>
+    <row r="89" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="73"/>
       <c r="C89" s="42" t="s">
         <v>50</v>
       </c>
@@ -4593,8 +4569,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:17" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="71"/>
+    <row r="90" spans="2:17" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="74"/>
       <c r="C90" s="64" t="s">
         <v>41</v>
       </c>
@@ -4629,8 +4605,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="69" t="s">
+    <row r="91" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="72" t="s">
         <v>60</v>
       </c>
       <c r="C91" s="49" t="s">
@@ -4671,8 +4647,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="92" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="70"/>
+    <row r="92" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="73"/>
       <c r="C92" s="42" t="s">
         <v>69</v>
       </c>
@@ -4711,8 +4687,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="70"/>
+    <row r="93" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="73"/>
       <c r="C93" s="41" t="s">
         <v>49</v>
       </c>
@@ -4751,8 +4727,8 @@
         <v>4.8543689320388345E-3</v>
       </c>
     </row>
-    <row r="94" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="70"/>
+    <row r="94" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="73"/>
       <c r="C94" s="42" t="s">
         <v>40</v>
       </c>
@@ -4787,8 +4763,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="70"/>
+    <row r="95" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="73"/>
       <c r="C95" s="42" t="s">
         <v>51</v>
       </c>
@@ -4803,7 +4779,7 @@
         <v>40</v>
       </c>
       <c r="I95" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J95" s="15">
         <f t="shared" si="17"/>
@@ -4823,8 +4799,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="70"/>
+    <row r="96" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="73"/>
       <c r="C96" s="7" t="s">
         <v>52</v>
       </c>
@@ -4859,8 +4835,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="70"/>
+    <row r="97" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="73"/>
       <c r="C97" s="42" t="s">
         <v>50</v>
       </c>
@@ -4895,8 +4871,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="71"/>
+    <row r="98" spans="2:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="74"/>
       <c r="C98" s="56" t="s">
         <v>41</v>
       </c>
@@ -4932,13 +4908,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B18:Q98"/>
   <mergeCells count="15">
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B24:B27"/>
     <mergeCell ref="B73:B81"/>
     <mergeCell ref="B82:B90"/>
     <mergeCell ref="B91:B98"/>
@@ -4948,6 +4919,12 @@
     <mergeCell ref="B46:B54"/>
     <mergeCell ref="B55:B63"/>
     <mergeCell ref="B64:B72"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B24:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4958,23 +4935,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="22" customWidth="1"/>
-    <col min="2" max="3" width="13.5546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="22" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="22" customWidth="1"/>
     <col min="5" max="5" width="16" style="22" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="22" customWidth="1"/>
-    <col min="7" max="8" width="15.44140625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="22"/>
+    <col min="6" max="6" width="14.85546875" style="22" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>18</v>
       </c>
@@ -4986,7 +4963,7 @@
       <c r="G1" s="79"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
@@ -5001,7 +4978,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
@@ -5014,7 +4991,7 @@
       <c r="E4" s="23"/>
       <c r="F4" s="27"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="80" t="s">
         <v>11</v>
       </c>
@@ -5026,7 +5003,7 @@
       <c r="H6" s="83"/>
       <c r="I6" s="84"/>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -5055,7 +5032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -5090,7 +5067,7 @@
         <v>0.16116504854368935</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -5114,18 +5091,18 @@
       </c>
       <c r="G9" s="3">
         <f>(SUMIFS(Tareas!$O$19:$O$98,Tareas!$P$19:$P$98,Semanas!A9))/60</f>
-        <v>15.266666666666667</v>
+        <v>15.433333333333334</v>
       </c>
       <c r="H9" s="4">
         <f>SUMIFS(Tareas!$Q$19:$Q$98,Tareas!$P$19:$P$98,Semanas!A9)</f>
-        <v>0.21456310679611645</v>
+        <v>0.23009708737864071</v>
       </c>
       <c r="I9" s="4">
         <f>I8+H9</f>
-        <v>0.3757281553398058</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.39126213592233006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -5137,15 +5114,15 @@
       </c>
       <c r="D10" s="3">
         <f>(SUMIFS(Tareas!$H$19:$H$98,Tareas!$I$19:$I$98,Semanas!A10))/60</f>
-        <v>26.333333333333332</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="E10" s="4">
         <f>SUMIFS(Tareas!$J$19:$J$98,Tareas!$I$19:$I$98,Semanas!A10)</f>
-        <v>0.30679611650485444</v>
+        <v>0.29902912621359229</v>
       </c>
       <c r="F10" s="31">
         <f t="shared" ref="F10:F11" si="0">F9+E10</f>
-        <v>0.74368932038834956</v>
+        <v>0.73592233009708741</v>
       </c>
       <c r="G10" s="3">
         <f>(SUMIFS(Tareas!$O$19:$O$98,Tareas!$P$19:$P$98,Semanas!A10))/60</f>
@@ -5157,10 +5134,10 @@
       </c>
       <c r="I10" s="4">
         <f>I9+H10</f>
-        <v>0.3757281553398058</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.39126213592233006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>4</v>
       </c>
@@ -5172,11 +5149,11 @@
       </c>
       <c r="D11" s="3">
         <f>(SUMIFS(Tareas!$H$19:$H$98,Tareas!$I$19:$I$98,Semanas!A11))/60</f>
-        <v>22</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="E11" s="4">
         <f>SUMIFS(Tareas!$J$19:$J$98,Tareas!$I$19:$I$98,Semanas!A11)</f>
-        <v>0.25631067961165055</v>
+        <v>0.26407766990291265</v>
       </c>
       <c r="F11" s="31">
         <f t="shared" si="0"/>
@@ -5192,45 +5169,45 @@
       </c>
       <c r="I11" s="4">
         <f>I10+H11</f>
-        <v>0.3757281553398058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.39126213592233006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="32">
         <f>SUM(D8:D11)</f>
-        <v>85.833333333333329</v>
+        <v>85.833333333333343</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="32">
         <f>SUM(G8:G11)</f>
-        <v>26.783333333333335</v>
+        <v>26.950000000000003</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="29"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="29"/>
     </row>
   </sheetData>
@@ -5253,22 +5230,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="e">
-        <f ca="1">_xlfn.IFS(A1=1,1,A1=2,2,A1=3,3)</f>
-        <v>#NAME?</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>_xlfn.IFS(A1=1,1,A1=2,2,A1=3,3)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Ciclo2/TSP_PlaneaciónGrupalDeTareas.xlsx
+++ b/Documentación/Ciclo2/TSP_PlaneaciónGrupalDeTareas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Documents\GitHub\ViveroFrutalia\Documentación\Ciclo 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Documents\GitHub\ViveroFrutalia\Documentación\Ciclo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8970" tabRatio="283"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8580" windowHeight="7395" tabRatio="283"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas" sheetId="1" r:id="rId1"/>
@@ -924,6 +924,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -931,27 +952,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1104,11 +1104,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1358796384"/>
-        <c:axId val="-1358794208"/>
+        <c:axId val="-2119478288"/>
+        <c:axId val="-2119476656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1358796384"/>
+        <c:axId val="-2119478288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,7 +1117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1358794208"/>
+        <c:crossAx val="-2119476656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1125,7 +1125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1358794208"/>
+        <c:axId val="-2119476656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,14 +1136,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1358796384"/>
+        <c:crossAx val="-2119478288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1178,7 +1177,7 @@
         <xdr:cNvPr id="3" name="2 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,10 +1485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92:G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,24 +1507,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E3" s="18"/>
@@ -1631,10 +1631,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="9">
         <f>SUM(D5:D8)</f>
         <v>22</v>
@@ -1646,10 +1646,10 @@
       <c r="J10" s="11">
         <v>42814</v>
       </c>
-      <c r="L10" s="71" t="s">
+      <c r="L10" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="71"/>
+      <c r="M10" s="78"/>
       <c r="N10" s="11">
         <v>42835</v>
       </c>
@@ -1704,26 +1704,26 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77" t="s">
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-    </row>
-    <row r="18" spans="2:17" s="38" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+    </row>
+    <row r="18" spans="2:17" s="38" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="44" t="s">
         <v>6</v>
       </c>
@@ -1773,8 +1773,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="72" t="s">
+    <row r="19" spans="2:17" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="69" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="49" t="s">
@@ -1825,8 +1825,8 @@
         <v>4.6601941747572817E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="73"/>
+    <row r="20" spans="2:17" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="70"/>
       <c r="C20" s="42" t="s">
         <v>44</v>
       </c>
@@ -1869,8 +1869,8 @@
         <v>1.5533980582524271E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="73"/>
+    <row r="21" spans="2:17" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="70"/>
       <c r="C21" s="42" t="s">
         <v>45</v>
       </c>
@@ -1907,8 +1907,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="74"/>
+    <row r="22" spans="2:17" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="71"/>
       <c r="C22" s="56" t="s">
         <v>46</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>1.1650485436893204E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="55.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="65" t="s">
         <v>70</v>
       </c>
@@ -2005,8 +2005,8 @@
         <v>5.2427184466019419E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="72" t="s">
+    <row r="24" spans="2:17" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="69" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="49" t="s">
@@ -2060,7 +2060,7 @@
       </c>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="73"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="42" t="s">
         <v>63</v>
       </c>
@@ -2111,8 +2111,8 @@
         <v>4.6601941747572817E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="73"/>
+    <row r="26" spans="2:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="70"/>
       <c r="C26" s="42" t="s">
         <v>64</v>
       </c>
@@ -2153,8 +2153,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="74"/>
+    <row r="27" spans="2:17" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="71"/>
       <c r="C27" s="56" t="s">
         <v>65</v>
       </c>
@@ -2196,7 +2196,7 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="69" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="49" t="s">
@@ -2238,7 +2238,7 @@
       </c>
     </row>
     <row r="29" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="73"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="42" t="s">
         <v>48</v>
       </c>
@@ -2278,7 +2278,7 @@
       </c>
     </row>
     <row r="30" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="73"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="42" t="s">
         <v>49</v>
       </c>
@@ -2318,7 +2318,7 @@
       </c>
     </row>
     <row r="31" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="73"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="42" t="s">
         <v>40</v>
       </c>
@@ -2358,7 +2358,7 @@
       </c>
     </row>
     <row r="32" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="73"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="42" t="s">
         <v>66</v>
       </c>
@@ -2398,7 +2398,7 @@
       </c>
     </row>
     <row r="33" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="73"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="42" t="s">
         <v>51</v>
       </c>
@@ -2434,7 +2434,7 @@
       </c>
     </row>
     <row r="34" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="73"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="7" t="s">
         <v>67</v>
       </c>
@@ -2470,7 +2470,7 @@
       </c>
     </row>
     <row r="35" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="73"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="42" t="s">
         <v>50</v>
       </c>
@@ -2506,7 +2506,7 @@
       </c>
     </row>
     <row r="36" spans="2:17" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="74"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="64" t="s">
         <v>41</v>
       </c>
@@ -2542,7 +2542,7 @@
       </c>
     </row>
     <row r="37" spans="2:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="69" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="49" t="s">
@@ -2584,7 +2584,7 @@
       </c>
     </row>
     <row r="38" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="73"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="42" t="s">
         <v>69</v>
       </c>
@@ -2628,7 +2628,7 @@
       </c>
     </row>
     <row r="39" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="73"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="42" t="s">
         <v>49</v>
       </c>
@@ -2668,7 +2668,7 @@
       </c>
     </row>
     <row r="40" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="73"/>
+      <c r="B40" s="70"/>
       <c r="C40" s="42" t="s">
         <v>40</v>
       </c>
@@ -2707,8 +2707,8 @@
         <v>1.9417475728155339E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="73"/>
+    <row r="41" spans="2:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="70"/>
       <c r="C41" s="42" t="s">
         <v>68</v>
       </c>
@@ -2747,8 +2747,8 @@
         <v>5.8252427184466021E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="73"/>
+    <row r="42" spans="2:17" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="70"/>
       <c r="C42" s="42" t="s">
         <v>51</v>
       </c>
@@ -2783,8 +2783,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="73"/>
+    <row r="43" spans="2:17" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="70"/>
       <c r="C43" s="7" t="s">
         <v>67</v>
       </c>
@@ -2819,8 +2819,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="73"/>
+    <row r="44" spans="2:17" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="70"/>
       <c r="C44" s="42" t="s">
         <v>50</v>
       </c>
@@ -2855,8 +2855,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="74"/>
+    <row r="45" spans="2:17" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="71"/>
       <c r="C45" s="64" t="s">
         <v>41</v>
       </c>
@@ -2892,7 +2892,7 @@
       </c>
     </row>
     <row r="46" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="69" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="49" t="s">
@@ -2934,7 +2934,7 @@
       </c>
     </row>
     <row r="47" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="73"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="42" t="s">
         <v>48</v>
       </c>
@@ -2974,7 +2974,7 @@
       </c>
     </row>
     <row r="48" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="73"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="42" t="s">
         <v>49</v>
       </c>
@@ -3014,7 +3014,7 @@
       </c>
     </row>
     <row r="49" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="73"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="42" t="s">
         <v>40</v>
       </c>
@@ -3050,7 +3050,7 @@
       </c>
     </row>
     <row r="50" spans="2:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="73"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="42" t="s">
         <v>66</v>
       </c>
@@ -3090,7 +3090,7 @@
       </c>
     </row>
     <row r="51" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="73"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="42" t="s">
         <v>51</v>
       </c>
@@ -3130,7 +3130,7 @@
       </c>
     </row>
     <row r="52" spans="2:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="73"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="7" t="s">
         <v>67</v>
       </c>
@@ -3166,7 +3166,7 @@
       </c>
     </row>
     <row r="53" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="73"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="42" t="s">
         <v>50</v>
       </c>
@@ -3202,7 +3202,7 @@
       </c>
     </row>
     <row r="54" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="74"/>
+      <c r="B54" s="71"/>
       <c r="C54" s="64" t="s">
         <v>41</v>
       </c>
@@ -3238,7 +3238,7 @@
       </c>
     </row>
     <row r="55" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="69" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="49" t="s">
@@ -3280,7 +3280,7 @@
       </c>
     </row>
     <row r="56" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="73"/>
+      <c r="B56" s="70"/>
       <c r="C56" s="42" t="s">
         <v>48</v>
       </c>
@@ -3320,7 +3320,7 @@
       </c>
     </row>
     <row r="57" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="73"/>
+      <c r="B57" s="70"/>
       <c r="C57" s="42" t="s">
         <v>49</v>
       </c>
@@ -3356,7 +3356,7 @@
       </c>
     </row>
     <row r="58" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="73"/>
+      <c r="B58" s="70"/>
       <c r="C58" s="42" t="s">
         <v>40</v>
       </c>
@@ -3392,7 +3392,7 @@
       </c>
     </row>
     <row r="59" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="73"/>
+      <c r="B59" s="70"/>
       <c r="C59" s="42" t="s">
         <v>66</v>
       </c>
@@ -3427,8 +3427,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="73"/>
+    <row r="60" spans="2:17" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="70"/>
       <c r="C60" s="42" t="s">
         <v>51</v>
       </c>
@@ -3463,8 +3463,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="73"/>
+    <row r="61" spans="2:17" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="70"/>
       <c r="C61" s="7" t="s">
         <v>67</v>
       </c>
@@ -3499,8 +3499,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="73"/>
+    <row r="62" spans="2:17" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="70"/>
       <c r="C62" s="42" t="s">
         <v>50</v>
       </c>
@@ -3535,8 +3535,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="74"/>
+    <row r="63" spans="2:17" ht="30.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="71"/>
       <c r="C63" s="64" t="s">
         <v>41</v>
       </c>
@@ -3571,8 +3571,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="72" t="s">
+    <row r="64" spans="2:17" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="69" t="s">
         <v>58</v>
       </c>
       <c r="C64" s="49" t="s">
@@ -3614,7 +3614,7 @@
       </c>
     </row>
     <row r="65" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="73"/>
+      <c r="B65" s="70"/>
       <c r="C65" s="42" t="s">
         <v>69</v>
       </c>
@@ -3654,7 +3654,7 @@
       </c>
     </row>
     <row r="66" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="73"/>
+      <c r="B66" s="70"/>
       <c r="C66" s="42" t="s">
         <v>49</v>
       </c>
@@ -3694,7 +3694,7 @@
       </c>
     </row>
     <row r="67" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="73"/>
+      <c r="B67" s="70"/>
       <c r="C67" s="42" t="s">
         <v>40</v>
       </c>
@@ -3734,7 +3734,7 @@
       </c>
     </row>
     <row r="68" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="73"/>
+      <c r="B68" s="70"/>
       <c r="C68" s="42" t="s">
         <v>68</v>
       </c>
@@ -3774,7 +3774,7 @@
       </c>
     </row>
     <row r="69" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="73"/>
+      <c r="B69" s="70"/>
       <c r="C69" s="42" t="s">
         <v>51</v>
       </c>
@@ -3814,7 +3814,7 @@
       </c>
     </row>
     <row r="70" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="73"/>
+      <c r="B70" s="70"/>
       <c r="C70" s="7" t="s">
         <v>67</v>
       </c>
@@ -3850,7 +3850,7 @@
       </c>
     </row>
     <row r="71" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="73"/>
+      <c r="B71" s="70"/>
       <c r="C71" s="42" t="s">
         <v>50</v>
       </c>
@@ -3886,7 +3886,7 @@
       </c>
     </row>
     <row r="72" spans="2:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="74"/>
+      <c r="B72" s="71"/>
       <c r="C72" s="64" t="s">
         <v>41</v>
       </c>
@@ -3922,7 +3922,7 @@
       </c>
     </row>
     <row r="73" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="72" t="s">
+      <c r="B73" s="69" t="s">
         <v>59</v>
       </c>
       <c r="C73" s="49" t="s">
@@ -3964,7 +3964,7 @@
       </c>
     </row>
     <row r="74" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="73"/>
+      <c r="B74" s="70"/>
       <c r="C74" s="42" t="s">
         <v>48</v>
       </c>
@@ -4004,7 +4004,7 @@
       </c>
     </row>
     <row r="75" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="73"/>
+      <c r="B75" s="70"/>
       <c r="C75" s="42" t="s">
         <v>49</v>
       </c>
@@ -4044,7 +4044,7 @@
       </c>
     </row>
     <row r="76" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="73"/>
+      <c r="B76" s="70"/>
       <c r="C76" s="42" t="s">
         <v>40</v>
       </c>
@@ -4084,7 +4084,7 @@
       </c>
     </row>
     <row r="77" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="73"/>
+      <c r="B77" s="70"/>
       <c r="C77" s="42" t="s">
         <v>66</v>
       </c>
@@ -4123,8 +4123,8 @@
         <v>3.8834951456310678E-3</v>
       </c>
     </row>
-    <row r="78" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="73"/>
+    <row r="78" spans="2:17" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="70"/>
       <c r="C78" s="42" t="s">
         <v>51</v>
       </c>
@@ -4159,8 +4159,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="73"/>
+    <row r="79" spans="2:17" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="70"/>
       <c r="C79" s="7" t="s">
         <v>67</v>
       </c>
@@ -4195,8 +4195,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="73"/>
+    <row r="80" spans="2:17" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="70"/>
       <c r="C80" s="42" t="s">
         <v>50</v>
       </c>
@@ -4231,8 +4231,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="74"/>
+    <row r="81" spans="2:17" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="71"/>
       <c r="C81" s="64" t="s">
         <v>41</v>
       </c>
@@ -4268,7 +4268,7 @@
       </c>
     </row>
     <row r="82" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="72" t="s">
+      <c r="B82" s="69" t="s">
         <v>53</v>
       </c>
       <c r="C82" s="49" t="s">
@@ -4310,7 +4310,7 @@
       </c>
     </row>
     <row r="83" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="73"/>
+      <c r="B83" s="70"/>
       <c r="C83" s="42" t="s">
         <v>48</v>
       </c>
@@ -4350,7 +4350,7 @@
       </c>
     </row>
     <row r="84" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="73"/>
+      <c r="B84" s="70"/>
       <c r="C84" s="42" t="s">
         <v>49</v>
       </c>
@@ -4390,7 +4390,7 @@
       </c>
     </row>
     <row r="85" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="73"/>
+      <c r="B85" s="70"/>
       <c r="C85" s="42" t="s">
         <v>40</v>
       </c>
@@ -4426,7 +4426,7 @@
       </c>
     </row>
     <row r="86" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="73"/>
+      <c r="B86" s="70"/>
       <c r="C86" s="42" t="s">
         <v>66</v>
       </c>
@@ -4462,7 +4462,7 @@
       </c>
     </row>
     <row r="87" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="73"/>
+      <c r="B87" s="70"/>
       <c r="C87" s="42" t="s">
         <v>51</v>
       </c>
@@ -4498,7 +4498,7 @@
       </c>
     </row>
     <row r="88" spans="2:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="73"/>
+      <c r="B88" s="70"/>
       <c r="C88" s="7" t="s">
         <v>67</v>
       </c>
@@ -4534,7 +4534,7 @@
       </c>
     </row>
     <row r="89" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="73"/>
+      <c r="B89" s="70"/>
       <c r="C89" s="42" t="s">
         <v>50</v>
       </c>
@@ -4570,7 +4570,7 @@
       </c>
     </row>
     <row r="90" spans="2:17" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="74"/>
+      <c r="B90" s="71"/>
       <c r="C90" s="64" t="s">
         <v>41</v>
       </c>
@@ -4606,7 +4606,7 @@
       </c>
     </row>
     <row r="91" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="72" t="s">
+      <c r="B91" s="69" t="s">
         <v>60</v>
       </c>
       <c r="C91" s="49" t="s">
@@ -4648,7 +4648,7 @@
       </c>
     </row>
     <row r="92" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="73"/>
+      <c r="B92" s="70"/>
       <c r="C92" s="42" t="s">
         <v>69</v>
       </c>
@@ -4688,7 +4688,7 @@
       </c>
     </row>
     <row r="93" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="73"/>
+      <c r="B93" s="70"/>
       <c r="C93" s="41" t="s">
         <v>49</v>
       </c>
@@ -4727,8 +4727,8 @@
         <v>4.8543689320388345E-3</v>
       </c>
     </row>
-    <row r="94" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="73"/>
+    <row r="94" spans="2:17" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="70"/>
       <c r="C94" s="42" t="s">
         <v>40</v>
       </c>
@@ -4763,8 +4763,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="73"/>
+    <row r="95" spans="2:17" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="70"/>
       <c r="C95" s="42" t="s">
         <v>51</v>
       </c>
@@ -4799,8 +4799,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="73"/>
+    <row r="96" spans="2:17" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="70"/>
       <c r="C96" s="7" t="s">
         <v>52</v>
       </c>
@@ -4835,8 +4835,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="73"/>
+    <row r="97" spans="2:17" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="70"/>
       <c r="C97" s="42" t="s">
         <v>50</v>
       </c>
@@ -4871,8 +4871,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="74"/>
+    <row r="98" spans="2:17" ht="30.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="71"/>
       <c r="C98" s="56" t="s">
         <v>41</v>
       </c>
@@ -4908,8 +4908,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B18:Q98"/>
+  <autoFilter ref="B18:Q98">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="2"/>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="B73:B81"/>
     <mergeCell ref="B82:B90"/>
     <mergeCell ref="B91:B98"/>
@@ -4919,12 +4932,6 @@
     <mergeCell ref="B46:B54"/>
     <mergeCell ref="B55:B63"/>
     <mergeCell ref="B64:B72"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B24:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
